--- a/Proyek SISMANJA (2).xlsx
+++ b/Proyek SISMANJA (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shendy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/simpegpkm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275EF66-77DB-47FB-8956-D30963EC6A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF16805-3A0F-9540-80A5-8C010646E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16E7B0DD-8D04-4AFD-8A9F-093B26FA4F84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{16E7B0DD-8D04-4AFD-8A9F-093B26FA4F84}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,30 +183,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,254 +525,254 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="53.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
